--- a/biology/Zoologie/Gastromyzontidae/Gastromyzontidae.xlsx
+++ b/biology/Zoologie/Gastromyzontidae/Gastromyzontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gastromyzontidae[1] ou « loches de rivière » sont une famille de poissons de l’ordre des Cypriniformes. Les Gastromyzontidae sont une famille de loches indigènes à la Chine et l'Asie du Sud. Ils se rencontrent généralement dans les ruisseaux et les rivières avec un courant rapide. La famille comprend environ 137 espèces répartie dans dix-huit genres. Cette famille a été ressuscitée par M. Kottelat dans son examen et la révision des loches en 2012[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gastromyzontidae ou « loches de rivière » sont une famille de poissons de l’ordre des Cypriniformes. Les Gastromyzontidae sont une famille de loches indigènes à la Chine et l'Asie du Sud. Ils se rencontrent généralement dans les ruisseaux et les rivières avec un courant rapide. La famille comprend environ 137 espèces répartie dans dix-huit genres. Cette famille a été ressuscitée par M. Kottelat dans son examen et la révision des loches en 2012.
 </t>
         </is>
       </c>
@@ -511,12 +523,48 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (09 juillet 2015)[2]:
-Famille non encore reconnu par FishBase.
-Note
-Selon M. Kottelat, (2012)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (09 juillet 2015):
+Famille non encore reconnu par FishBase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gastromyzontidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gastromyzontidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon M. Kottelat, (2012):
 Annamia Hora, 1932
 Beaufortia Hora, 1932
 Erromyzon Kottelat, 2004
@@ -534,7 +582,7 @@
 Pseudogastromyzon Nichols, 1925
 Sewellia Hora, 1932
 Vanmanenia Hora, 1932
-Yaoshania Jian Yang, Kottelat, J. X. Yang &amp; X. Y. Chen, 2012[3]</t>
+Yaoshania Jian Yang, Kottelat, J. X. Yang &amp; X. Y. Chen, 2012</t>
         </is>
       </c>
     </row>
